--- a/out/tests-28-08-2024/final/ACK impact on transmission time/x10/ACK_test_noAPS_recv-MAC_2024-08-29_11-50-12/test_noAPS_MAC-00.xlsx
+++ b/out/tests-28-08-2024/final/ACK impact on transmission time/x10/ACK_test_noAPS_recv-MAC_2024-08-29_11-50-12/test_noAPS_MAC-00.xlsx
@@ -629,7 +629,10 @@
           <table:table-cell office:value-type="string">
             <text:p>mean</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1012"/>
+          <table:table-cell office:value-type="string">
+            <text:p>mean</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1011"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="8"/>
@@ -640,7 +643,10 @@
           <table:table-cell office:value-type="string">
             <text:p>0.7682068</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1012"/>
+          <table:table-cell office:value-type="string">
+            <text:p>19.2303393</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1011"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048559">
           <table:table-cell table:number-columns-repeated="1024"/>
@@ -657,9 +663,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2024-08-29T16:03:41.13</dc:date>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="185" meta:object-count="0"/>
+    <dc:date>2024-09-01T16:41:21.59</dc:date>
     <meta:generator>OpenOffice/4.1.13$Win32 OpenOffice.org_project/4113m1$Build-9810</meta:generator>
+    <meta:editing-duration>PT1M50S</meta:editing-duration>
+    <meta:editing-cycles>1</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="187" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -677,8 +685,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">12</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">16</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">15</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -769,89 +777,89 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:currency-style style:name="N104P0" style:volatile="true">
+    <number:currency-style style:name="N108P0" style:volatile="true">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
       <number:currency-symbol number:language="pl" number:country="PL">zł</number:currency-symbol>
     </number:currency-style>
-    <number:currency-style style:name="N104">
+    <number:currency-style style:name="N108">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
       <number:currency-symbol number:language="pl" number:country="PL">zł</number:currency-symbol>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N104P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N108P0"/>
     </number:currency-style>
     <number:number-style style:name="N8000" number:language="pl" number:country="PL">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N8107P0" style:volatile="true" number:language="pl" number:country="PL">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> zł</number:text>
-    </number:number-style>
-    <number:number-style style:name="N8107" number:language="pl" number:country="PL">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> zł</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8107P0"/>
-    </number:number-style>
     <number:number-style style:name="N8108P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
     </number:number-style>
     <number:number-style style:name="N8108" number:language="pl" number:country="PL">
-      <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N8108P0"/>
     </number:number-style>
     <number:number-style style:name="N8109P0" style:volatile="true" number:language="pl" number:country="PL">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
     </number:number-style>
     <number:number-style style:name="N8109" number:language="pl" number:country="PL">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N8109P0"/>
     </number:number-style>
-    <number:number-style style:name="N8110P0" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8111P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
     </number:number-style>
-    <number:number-style style:name="N8110" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8111" number:language="pl" number:country="PL">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> zł</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8111P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8112P0" style:volatile="true" number:language="pl" number:country="PL">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> zł</number:text>
+    </number:number-style>
+    <number:number-style style:name="N8112" number:language="pl" number:country="PL">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8110P0"/>
-    </number:number-style>
-    <number:date-style style:name="N8111" number:language="pl" number:country="PL">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8112P0"/>
+    </number:number-style>
+    <number:date-style style:name="N8113" number:language="pl" number:country="PL">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8112" number:language="pl" number:country="PL">
+    <number:date-style style:name="N8114" number:language="pl" number:country="PL">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N8113" number:language="pl" number:country="PL">
+    <number:date-style style:name="N8115" number:language="pl" number:country="PL">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N8114" number:language="pl" number:country="PL">
+    <number:time-style style:name="N8116" number:language="pl" number:country="PL">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8115" number:language="pl" number:country="PL">
+    <number:time-style style:name="N8117" number:language="pl" number:country="PL">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -860,154 +868,150 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:number-style style:name="N8116P0" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8119P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
     </number:number-style>
-    <number:number-style style:name="N8116" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8119" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8116P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8117P0" style:volatile="true" number:language="pl" number:country="PL">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8119P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8120P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
     </number:number-style>
-    <number:number-style style:name="N8117" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8120" number:language="pl" number:country="PL">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8117P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8118P0" style:volatile="true" number:language="pl" number:country="PL">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8120P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8122P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
     </number:number-style>
-    <number:number-style style:name="N8118" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8122" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8118P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8119P0" style:volatile="true" number:language="pl" number:country="PL">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8122P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8123P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
     </number:number-style>
-    <number:number-style style:name="N8119" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8123" number:language="pl" number:country="PL">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>     </number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8119P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8120P0" style:volatile="true" number:language="pl" number:country="PL">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8123P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8127P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> </number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>      </number:text>
     </number:number-style>
-    <number:number-style style:name="N8120P1" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8127P1" style:volatile="true" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>      </number:text>
     </number:number-style>
-    <number:number-style style:name="N8120P2" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8127P2" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> -      </number:text>
     </number:number-style>
-    <number:text-style style:name="N8120" number:language="pl" number:country="PL">
-      <number:text> </number:text>
+    <number:text-style style:name="N8127" number:language="pl" number:country="PL">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8120P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8120P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8120P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8127P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8127P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8127P2"/>
     </number:text-style>
-    <number:number-style style:name="N8121P0" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8131P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> </number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł </number:text>
     </number:number-style>
-    <number:number-style style:name="N8121P1" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8131P1" style:volatile="true" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł </number:text>
     </number:number-style>
-    <number:number-style style:name="N8121P2" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8131P2" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> - zł </number:text>
     </number:number-style>
-    <number:text-style style:name="N8121" number:language="pl" number:country="PL">
-      <number:text> </number:text>
+    <number:text-style style:name="N8131" number:language="pl" number:country="PL">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8121P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8121P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8121P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8131P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8131P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8131P2"/>
     </number:text-style>
-    <number:number-style style:name="N8122P0" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8135P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> </number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>      </number:text>
     </number:number-style>
-    <number:number-style style:name="N8122P1" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8135P1" style:volatile="true" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>      </number:text>
     </number:number-style>
-    <number:number-style style:name="N8122P2" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8135P2" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text>      </number:text>
     </number:number-style>
-    <number:text-style style:name="N8122" number:language="pl" number:country="PL">
-      <number:text> </number:text>
+    <number:text-style style:name="N8135" number:language="pl" number:country="PL">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8122P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8122P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8122P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8135P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8135P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8135P2"/>
     </number:text-style>
-    <number:number-style style:name="N8123P0" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8139P0" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> </number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł </number:text>
     </number:number-style>
-    <number:number-style style:name="N8123P1" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8139P1" style:volatile="true" number:language="pl" number:country="PL">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> zł </number:text>
     </number:number-style>
-    <number:number-style style:name="N8123P2" style:volatile="true" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8139P2" style:volatile="true" number:language="pl" number:country="PL">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> zł </number:text>
     </number:number-style>
-    <number:text-style style:name="N8123" number:language="pl" number:country="PL">
-      <number:text> </number:text>
+    <number:text-style style:name="N8139" number:language="pl" number:country="PL">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8123P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8123P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8123P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8139P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8139P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8139P2"/>
     </number:text-style>
-    <number:time-style style:name="N8124" number:language="pl" number:country="PL">
+    <number:time-style style:name="N8140" number:language="pl" number:country="PL">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8125" number:language="pl" number:country="PL" number:truncate-on-overflow="false">
+    <number:time-style style:name="N8141" number:language="pl" number:country="PL" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8126" number:language="pl" number:country="PL">
+    <number:time-style style:name="N8142" number:language="pl" number:country="PL">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N8127" number:language="pl" number:country="PL">
+    <number:number-style style:name="N8143" number:language="pl" number:country="PL">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -1016,7 +1020,7 @@
     <style:style style:name="Result" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" fo:font-weight="bold"/>
     </style:style>
-    <style:style style:name="Result2" style:family="table-cell" style:parent-style-name="Result" style:data-style-name="N104"/>
+    <style:style style:name="Result2" style:family="table-cell" style:parent-style-name="Result" style:data-style-name="N108"/>
     <style:style style:name="Heading" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="center"/>
@@ -1092,9 +1096,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-08-29">29.08.2024</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-09-01">01.09.2024</text:date>
             , 
-            <text:time>16:03:41</text:time>
+            <text:time>16:41:21</text:time>
           </text:p>
         </style:region-right>
       </style:header>
